--- a/data/trans_orig/P1805_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1805_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>15937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8185</v>
+        <v>9354</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25244</v>
+        <v>25846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02112685591479329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01084998372570404</v>
+        <v>0.01240049338235204</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03346532263312534</v>
+        <v>0.03426305629640157</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -763,19 +763,19 @@
         <v>42525</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30623</v>
+        <v>30486</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57310</v>
+        <v>57080</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04275317295358094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03078695034424992</v>
+        <v>0.03064983093304038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05761770451523087</v>
+        <v>0.05738653243816845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -784,19 +784,19 @@
         <v>58462</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44513</v>
+        <v>44583</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74936</v>
+        <v>75874</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03342574142526104</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02545059919906908</v>
+        <v>0.02549042795571803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04284487503895287</v>
+        <v>0.04338117839591702</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>738410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>729103</v>
+        <v>728501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>746162</v>
+        <v>744993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9788731440852068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9665346773668747</v>
+        <v>0.9657369437035987</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.989150016274296</v>
+        <v>0.9875995066176481</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>854</v>
@@ -834,19 +834,19 @@
         <v>952135</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>937350</v>
+        <v>937580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>964037</v>
+        <v>964174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9572468270464191</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9423822954847692</v>
+        <v>0.9426134675618314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9692130496557503</v>
+        <v>0.9693501690669596</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1601</v>
@@ -855,19 +855,19 @@
         <v>1690545</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1674071</v>
+        <v>1673133</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1704494</v>
+        <v>1704424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.966574258574739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.957155124961047</v>
+        <v>0.9566188216040827</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9745494008009308</v>
+        <v>0.9745095720442818</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>36705</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26514</v>
+        <v>25932</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50836</v>
+        <v>51669</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01767727985763099</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01276916407919362</v>
+        <v>0.0124889967004175</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02448280983190793</v>
+        <v>0.02488390639492796</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -980,19 +980,19 @@
         <v>73401</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55967</v>
+        <v>57435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93307</v>
+        <v>93539</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03691650975551166</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02814814399248593</v>
+        <v>0.02888646490114427</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04692781325634159</v>
+        <v>0.04704476037725081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>100</v>
@@ -1001,19 +1001,19 @@
         <v>110106</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88508</v>
+        <v>90716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131579</v>
+        <v>135293</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02708843023400737</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02177477608881068</v>
+        <v>0.02231820014144146</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03237135162526519</v>
+        <v>0.03328502754091376</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>2039680</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2025549</v>
+        <v>2024716</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2049871</v>
+        <v>2050453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.982322720142369</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.975517190168092</v>
+        <v>0.975116093605072</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9872308359208063</v>
+        <v>0.9875110032995825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1844</v>
@@ -1051,19 +1051,19 @@
         <v>1914899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1894993</v>
+        <v>1894761</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1932333</v>
+        <v>1930865</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9630834902444884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9530721867436583</v>
+        <v>0.9529552396227493</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.971851856007514</v>
+        <v>0.9711135350988558</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3760</v>
@@ -1072,19 +1072,19 @@
         <v>3954579</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3933106</v>
+        <v>3929392</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3976177</v>
+        <v>3973969</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9729115697659926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9676286483747351</v>
+        <v>0.9667149724590862</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9782252239111895</v>
+        <v>0.9776817998585584</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>8421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3835</v>
+        <v>3891</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15852</v>
+        <v>16753</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01539852649849959</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00701233936895418</v>
+        <v>0.007113952900844285</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02898599608208935</v>
+        <v>0.03063278646971263</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1197,19 +1197,19 @@
         <v>15013</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8712</v>
+        <v>8859</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24649</v>
+        <v>23760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0273383586824001</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01586519774469985</v>
+        <v>0.01613166059177654</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04488719605263881</v>
+        <v>0.04326715381102875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1218,19 +1218,19 @@
         <v>23434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15258</v>
+        <v>15574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34201</v>
+        <v>33915</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02138072061926618</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01392091463300653</v>
+        <v>0.01420985341389986</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03120471217556848</v>
+        <v>0.03094372251486107</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>538465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>531034</v>
+        <v>530133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543051</v>
+        <v>542995</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9846014735015004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9710140039179106</v>
+        <v>0.9693672135302873</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9929876606310458</v>
+        <v>0.9928860470991557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -1268,19 +1268,19 @@
         <v>534127</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>524491</v>
+        <v>525380</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540428</v>
+        <v>540281</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9726616413175999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9551128039473612</v>
+        <v>0.9567328461889713</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9841348022553001</v>
+        <v>0.9838683394082235</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1004</v>
@@ -1289,19 +1289,19 @@
         <v>1072593</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1061826</v>
+        <v>1062112</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1080769</v>
+        <v>1080453</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9786192793807338</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9687952878244316</v>
+        <v>0.9690562774851389</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9860790853669934</v>
+        <v>0.9857901465861002</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>61063</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46950</v>
+        <v>47782</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77394</v>
+        <v>79572</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01807873372204745</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01390042741818014</v>
+        <v>0.01414678501228876</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02291376114946639</v>
+        <v>0.02355870578768127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>117</v>
@@ -1414,19 +1414,19 @@
         <v>130939</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111361</v>
+        <v>110338</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157689</v>
+        <v>158718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03707102035247346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03152833772155774</v>
+        <v>0.03123860593244765</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04464440778529503</v>
+        <v>0.0449359067515163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>176</v>
@@ -1435,19 +1435,19 @@
         <v>192002</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163745</v>
+        <v>165708</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>218667</v>
+        <v>223852</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02778718515532444</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02369772608790411</v>
+        <v>0.0239819479895717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03164633100134156</v>
+        <v>0.03239672219049771</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3316555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3300224</v>
+        <v>3298046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3330668</v>
+        <v>3329836</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9819212662779525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9770862388505337</v>
+        <v>0.9764412942123193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9860995725818199</v>
+        <v>0.9858532149877113</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3209</v>
@@ -1485,19 +1485,19 @@
         <v>3401161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3374411</v>
+        <v>3373382</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3420739</v>
+        <v>3421762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9629289796475266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9553555922147049</v>
+        <v>0.9550640932484837</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9684716622784422</v>
+        <v>0.9687613940675522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6365</v>
@@ -1506,19 +1506,19 @@
         <v>6717716</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6691051</v>
+        <v>6685866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6745973</v>
+        <v>6744010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9722128148446756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9683536689986585</v>
+        <v>0.9676032778095023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9763022739120959</v>
+        <v>0.9760180520104289</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>14112</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7497</v>
+        <v>7921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24776</v>
+        <v>24450</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02439312223526863</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01295825628432013</v>
+        <v>0.01369120201307964</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04282629148583276</v>
+        <v>0.04226261526917052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -1870,19 +1870,19 @@
         <v>25777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18674</v>
+        <v>18598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34381</v>
+        <v>34711</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03137973500353054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02273286860194922</v>
+        <v>0.02264110928379821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04185502585978392</v>
+        <v>0.0422567538959752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -1891,19 +1891,19 @@
         <v>39889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30800</v>
+        <v>30044</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53180</v>
+        <v>53325</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02849256055759904</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02200043643552088</v>
+        <v>0.02146074859768483</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03798632671274223</v>
+        <v>0.0380900615112256</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>564417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>553753</v>
+        <v>554079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>571032</v>
+        <v>570608</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9756068777647314</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9571737085141673</v>
+        <v>0.957737384730829</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9870417437156797</v>
+        <v>0.9863087979869205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1385</v>
@@ -1941,19 +1941,19 @@
         <v>795665</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>787061</v>
+        <v>786731</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>802768</v>
+        <v>802844</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9686202649964695</v>
+        <v>0.9686202649964697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9581449741402162</v>
+        <v>0.9577432461040248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9772671313980507</v>
+        <v>0.9773588907162017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2062</v>
@@ -1962,19 +1962,19 @@
         <v>1360082</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1346791</v>
+        <v>1346646</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1369171</v>
+        <v>1369927</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.971507439442401</v>
+        <v>0.9715074394424008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9620136732872577</v>
+        <v>0.9619099384887739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9779995635644791</v>
+        <v>0.9785392514023151</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>75577</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57543</v>
+        <v>57339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97786</v>
+        <v>98121</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03388247007523176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02579765538611561</v>
+        <v>0.02570597184335603</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04383914080463566</v>
+        <v>0.0439892859642844</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>114</v>
@@ -2087,19 +2087,19 @@
         <v>86423</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71260</v>
+        <v>69210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107028</v>
+        <v>104853</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03981326530937161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03282797171274675</v>
+        <v>0.03188350944814927</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04930573856917701</v>
+        <v>0.04830358964215181</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -2108,19 +2108,19 @@
         <v>162000</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>135766</v>
+        <v>138717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191079</v>
+        <v>193325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03680753708715891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03084708960268683</v>
+        <v>0.03151745797079102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04341439611102915</v>
+        <v>0.04392488632416112</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2154989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2132780</v>
+        <v>2132445</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2173023</v>
+        <v>2173227</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9661175299247684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9561608591953646</v>
+        <v>0.9560107140357157</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9742023446138847</v>
+        <v>0.974294028156644</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2806</v>
@@ -2158,19 +2158,19 @@
         <v>2084284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2063679</v>
+        <v>2065854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2099447</v>
+        <v>2101497</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9601867346906283</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9506942614308229</v>
+        <v>0.9516964103578481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9671720282872533</v>
+        <v>0.9681164905518507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4740</v>
@@ -2179,19 +2179,19 @@
         <v>4239274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4210195</v>
+        <v>4207949</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4265508</v>
+        <v>4262557</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.963192462912841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.956585603888971</v>
+        <v>0.9560751136758389</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9691529103973132</v>
+        <v>0.9684825420292091</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>27476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17529</v>
+        <v>17961</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41347</v>
+        <v>42081</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03861200926130589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02463424772814948</v>
+        <v>0.02524047847745211</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05810602905247587</v>
+        <v>0.0591369883815128</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -2304,19 +2304,19 @@
         <v>44993</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34401</v>
+        <v>34121</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59864</v>
+        <v>59400</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06122489509959462</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04681183135708895</v>
+        <v>0.04643080702673311</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08146167494237219</v>
+        <v>0.08083013076250185</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -2325,19 +2325,19 @@
         <v>72469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55301</v>
+        <v>56659</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90349</v>
+        <v>90708</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05010050290770892</v>
+        <v>0.05010050290770891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03823155324513917</v>
+        <v>0.03917068587439188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06246225843141738</v>
+        <v>0.06270992515087631</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>684111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>670240</v>
+        <v>669506</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>694058</v>
+        <v>693626</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9613879907386943</v>
+        <v>0.961387990738694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9418939709475241</v>
+        <v>0.9408630116184872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9753657522718508</v>
+        <v>0.974759521522548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>950</v>
@@ -2375,19 +2375,19 @@
         <v>689884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>675013</v>
+        <v>675477</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>700476</v>
+        <v>700756</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9387751049004052</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9185383250576279</v>
+        <v>0.9191698692374984</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9531881686429111</v>
+        <v>0.953569192973267</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1608</v>
@@ -2396,19 +2396,19 @@
         <v>1373995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1356115</v>
+        <v>1355756</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1391163</v>
+        <v>1389805</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9498994970922913</v>
+        <v>0.949899497092291</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9375377415685829</v>
+        <v>0.9372900748491237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9617684467548608</v>
+        <v>0.960829314125608</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>117165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92303</v>
+        <v>93996</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144870</v>
+        <v>148811</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03327906778357471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0262174352846939</v>
+        <v>0.02669822706794977</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0411482584281786</v>
+        <v>0.04226754904111276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>209</v>
@@ -2521,19 +2521,19 @@
         <v>157192</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135997</v>
+        <v>136357</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>181794</v>
+        <v>182558</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04217634671706447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03648929388884443</v>
+        <v>0.03658597672110572</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04877723335658675</v>
+        <v>0.04898211944999706</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>304</v>
@@ -2542,19 +2542,19 @@
         <v>274357</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243226</v>
+        <v>241044</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311518</v>
+        <v>310932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03785436076386118</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03355899024586463</v>
+        <v>0.03325795072332344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04298163645864327</v>
+        <v>0.04290069038446493</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3403518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3375813</v>
+        <v>3371872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3428380</v>
+        <v>3426687</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9667209322164253</v>
+        <v>0.9667209322164254</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9588517415718214</v>
+        <v>0.9577324509588871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9737825647153058</v>
+        <v>0.9733017729320502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5141</v>
@@ -2592,19 +2592,19 @@
         <v>3569834</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3545232</v>
+        <v>3544468</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3591029</v>
+        <v>3590669</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9578236532829357</v>
+        <v>0.9578236532829354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9512227666434132</v>
+        <v>0.9510178805500028</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9635107061111555</v>
+        <v>0.9634140232788941</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8410</v>
@@ -2613,19 +2613,19 @@
         <v>6973352</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6936191</v>
+        <v>6936777</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7004483</v>
+        <v>7006665</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9621456392361389</v>
+        <v>0.9621456392361388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9570183635413566</v>
+        <v>0.957099309615535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9664410097541353</v>
+        <v>0.9667420492766764</v>
       </c>
     </row>
     <row r="15">
